--- a/src/reportes/PruebaSQLITE.xlsx
+++ b/src/reportes/PruebaSQLITE.xlsx
@@ -539,6 +539,121 @@
       </c>
       <c r="E17" s="5" t="inlineStr"/>
     </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Charly</t>
+          </r>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Manson</t>
+          </r>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Marilyn</t>
+          </r>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Garcia</t>
+          </r>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr"/>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Marcelo</t>
+          </r>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Chamboneti</t>
+          </r>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Jorge</t>
+          </r>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Valencia</t>
+          </r>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Paola</t>
+          </r>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Sarria</t>
+          </r>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:D1"/>
@@ -574,6 +689,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.2777777777777778" right="0.2777777777777778" top="0.2777777777777778" bottom="0.2777777777777778" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
